--- a/Bang_phan_cong.xlsx
+++ b/Bang_phan_cong.xlsx
@@ -8,28 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\OneDrive\Desktop\Quiz_Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A98B1DF5-48E6-4C93-9FAF-89166FC989E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD4B52C-E303-495F-A3ED-F8210EB99198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{20E10C14-613F-41FB-9463-2282C6AA1DF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -167,17 +156,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -496,7 +485,7 @@
   <dimension ref="D1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -507,20 +496,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="4:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -531,37 +520,37 @@
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="4:6" ht="54" x14ac:dyDescent="0.35">
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="4:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="4:6" ht="36" x14ac:dyDescent="0.35">
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="3" t="s">
